--- a/static/data/confidence_indices.xlsx
+++ b/static/data/confidence_indices.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11403,13 +11403,13 @@
         <v>87.5</v>
       </c>
       <c r="C430" t="n">
-        <v>69.56521739130434</v>
+        <v>70.83333333333334</v>
       </c>
       <c r="D430" t="n">
         <v>58.33333333333334</v>
       </c>
       <c r="E430" t="n">
-        <v>45.16129032258064</v>
+        <v>43.75</v>
       </c>
       <c r="F430" t="n">
         <v>44.44444444444444</v>
@@ -11421,7 +11421,7 @@
         <v>15.38461538461539</v>
       </c>
       <c r="I430" t="n">
-        <v>39.1304347826087</v>
+        <v>41.66666666666667</v>
       </c>
     </row>
     <row r="431">
@@ -11464,7 +11464,7 @@
         <v>54.54545454545454</v>
       </c>
       <c r="D432" t="n">
-        <v>40</v>
+        <v>43.75</v>
       </c>
       <c r="E432" t="n">
         <v>24.13793103448276</v>
@@ -11476,7 +11476,7 @@
         <v>57.69230769230769</v>
       </c>
       <c r="H432" t="n">
-        <v>33.33333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="I432" t="n">
         <v>56.00000000000001</v>
@@ -11490,25 +11490,141 @@
         <v>91.66666666666666</v>
       </c>
       <c r="C433" t="n">
-        <v>44.44444444444444</v>
+        <v>40</v>
       </c>
       <c r="D433" t="n">
         <v>28.57142857142857</v>
       </c>
       <c r="E433" t="n">
-        <v>30.43478260869566</v>
+        <v>28</v>
       </c>
       <c r="F433" t="n">
         <v>50</v>
       </c>
       <c r="G433" t="n">
-        <v>31.57894736842105</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="H433" t="n">
         <v>50</v>
       </c>
       <c r="I433" t="n">
-        <v>30.43478260869566</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B434" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="C434" t="n">
+        <v>50</v>
+      </c>
+      <c r="D434" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="E434" t="n">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="F434" t="n">
+        <v>77.77777777777779</v>
+      </c>
+      <c r="G434" t="n">
+        <v>19.04761904761905</v>
+      </c>
+      <c r="H434" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="I434" t="n">
+        <v>29.16666666666667</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B435" t="n">
+        <v>63.63636363636363</v>
+      </c>
+      <c r="C435" t="n">
+        <v>82.60869565217391</v>
+      </c>
+      <c r="D435" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="E435" t="n">
+        <v>27.58620689655172</v>
+      </c>
+      <c r="F435" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="G435" t="n">
+        <v>69.23076923076923</v>
+      </c>
+      <c r="H435" t="n">
+        <v>25</v>
+      </c>
+      <c r="I435" t="n">
+        <v>55.55555555555556</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B436" t="n">
+        <v>69.23076923076923</v>
+      </c>
+      <c r="C436" t="n">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="D436" t="n">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="E436" t="n">
+        <v>32</v>
+      </c>
+      <c r="F436" t="n">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="G436" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="H436" t="n">
+        <v>64.28571428571429</v>
+      </c>
+      <c r="I436" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B437" t="n">
+        <v>60</v>
+      </c>
+      <c r="C437" t="n">
+        <v>84</v>
+      </c>
+      <c r="D437" t="n">
+        <v>100</v>
+      </c>
+      <c r="E437" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="F437" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="G437" t="n">
+        <v>60</v>
+      </c>
+      <c r="H437" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="I437" t="n">
+        <v>36.36363636363637</v>
       </c>
     </row>
   </sheetData>
